--- a/其他/学习时长统计表格.xlsx
+++ b/其他/学习时长统计表格.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <r>
       <rPr>
@@ -439,6 +439,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>周日</t>
     </r>
     <r>
@@ -498,6 +504,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>周一，强制加班至</t>
     </r>
     <r>
@@ -535,6 +547,47 @@
         <charset val="134"/>
       </rPr>
       <t>，无奈，回家后学习一会儿</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>周二,学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> node </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视频, 先从简单的做起,慢慢考虑复杂问题</t>
     </r>
   </si>
 </sst>
@@ -543,13 +596,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,20 +623,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,67 +765,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -673,59 +773,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -747,43 +794,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,139 +944,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,6 +985,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -954,22 +1016,48 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -989,51 +1077,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1041,148 +1088,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1194,7 +1241,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1204,7 +1251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1553,10 +1600,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1708,19 +1755,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+    <row r="11" ht="27.75" spans="1:4">
+      <c r="A11" s="4">
+        <v>44285</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D11">
-        <f>SUM(D3:D10)</f>
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
+      <c r="D12">
+        <f>SUM(D3:D11)</f>
+        <v>-3</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5"/>
@@ -1781,6 +1837,11 @@
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/其他/学习时长统计表格.xlsx
+++ b/其他/学习时长统计表格.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <r>
       <rPr>
@@ -551,6 +551,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>周二,学习</t>
     </r>
     <r>
@@ -589,6 +595,9 @@
       </rPr>
       <t>视频, 先从简单的做起,慢慢考虑复杂问题</t>
     </r>
+  </si>
+  <si>
+    <t>周三, 强制加班至 9:30, 先忍着吧,回家后看了会 node 视频</t>
   </si>
 </sst>
 </file>
@@ -596,11 +605,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -636,6 +645,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -644,28 +683,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -674,6 +691,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -683,6 +708,52 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,20 +767,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -718,58 +775,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -794,187 +803,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,6 +994,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1006,43 +1030,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1058,6 +1047,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1079,157 +1077,168 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1600,10 +1609,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1769,19 +1778,28 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+    <row r="12" ht="27" spans="1:4">
+      <c r="A12" s="4">
+        <v>44286</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D12">
-        <f>SUM(D3:D11)</f>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
+      <c r="D13">
+        <f>SUM(D3:D12)</f>
+        <v>-2.5</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5"/>
@@ -1842,6 +1860,11 @@
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/其他/学习时长统计表格.xlsx
+++ b/其他/学习时长统计表格.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <r>
       <rPr>
@@ -599,17 +599,38 @@
   <si>
     <t>周三, 强制加班至 9:30, 先忍着吧,回家后看了会 node 视频</t>
   </si>
+  <si>
+    <t>周四,偷懒了</t>
+  </si>
+  <si>
+    <t>周五, 回修水</t>
+  </si>
+  <si>
+    <t>周六, 放假在家事情多</t>
+  </si>
+  <si>
+    <t>周日,中午吃完饭后回长沙, 收拾东西</t>
+  </si>
+  <si>
+    <t>周一,带娃, 收拾东西</t>
+  </si>
+  <si>
+    <t>周二,加班至 9:30, 回家还要带娃</t>
+  </si>
+  <si>
+    <t>周三,加班至 9:30, 还是学习了一个小时,加油</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -631,6 +652,88 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -638,8 +741,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,44 +788,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -700,88 +797,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -803,31 +824,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,25 +992,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,121 +1004,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,6 +1015,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1008,54 +1049,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1077,11 +1070,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,156 +1080,186 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1609,10 +1630,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1793,63 +1814,130 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="4">
+        <v>44287</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D13">
-        <f>SUM(D3:D12)</f>
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4">
+        <v>44288</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4">
+        <v>44289</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4">
+        <v>44290</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4">
+        <v>44291</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4">
+        <v>44292</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="1:4">
+      <c r="A19" s="4">
+        <v>44293</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="5"/>
+      <c r="A20" s="4">
+        <v>44294</v>
+      </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="5"/>
+      <c r="A21" s="4">
+        <v>44295</v>
+      </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="5"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
+      <c r="D23">
+        <f>SUM(D3:D18)</f>
+        <v>-8</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="5"/>
@@ -1865,6 +1953,56 @@
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/其他/学习时长统计表格.xlsx
+++ b/其他/学习时长统计表格.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <r>
       <rPr>
@@ -619,6 +619,9 @@
   </si>
   <si>
     <t>周三,加班至 9:30, 还是学习了一个小时,加油</t>
+  </si>
+  <si>
+    <t>周四,加班至 9:30 , 学习一个小时至 12:15</t>
   </si>
 </sst>
 </file>
@@ -627,10 +630,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -652,6 +655,111 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,120 +769,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,6 +799,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -824,67 +827,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,7 +983,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,103 +995,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,17 +1018,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1039,16 +1031,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,32 +1063,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1115,16 +1083,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1133,133 +1136,133 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1632,8 +1635,8 @@
   <sheetPr/>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1911,12 +1914,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" ht="27" spans="1:4">
       <c r="A20" s="4">
         <v>44294</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="7"/>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4">
@@ -1935,7 +1945,7 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23">
-        <f>SUM(D3:D18)</f>
+        <f>SUM(D3:D20)</f>
         <v>-8</v>
       </c>
     </row>

--- a/其他/学习时长统计表格.xlsx
+++ b/其他/学习时长统计表格.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <r>
       <rPr>
@@ -622,6 +622,12 @@
   </si>
   <si>
     <t>周四,加班至 9:30 , 学习一个小时至 12:15</t>
+  </si>
+  <si>
+    <t>休息</t>
+  </si>
+  <si>
+    <t>周六,正常上班, 晚上没有加班, 带娃,学习了两小时的 node 视频</t>
   </si>
 </sst>
 </file>
@@ -629,10 +635,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="24">
@@ -658,21 +664,121 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -691,27 +797,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -720,92 +805,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -827,187 +833,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,7 +1031,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,41 +1051,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1118,151 +1094,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1636,7 +1642,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1928,24 +1934,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" s="4">
         <v>44295</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="7"/>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="27" spans="1:4">
+      <c r="A22" s="4">
+        <v>44296</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23">
-        <f>SUM(D3:D20)</f>
+        <f>SUM(D3:D22)</f>
         <v>-8</v>
       </c>
     </row>
